--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,13 @@
     <t>prof.amit.arora@gmail.com</t>
   </si>
   <si>
-    <t>cus_KPMuSUovcOjg6T</t>
+    <t>cus_KQ6aaMpTMkZP9V</t>
+  </si>
+  <si>
+    <t>cus_KQ6ayxL6jsGJ8c</t>
+  </si>
+  <si>
+    <t>cus_KQ6aP84xmpHq5P</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,6 +516,16 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
